--- a/medicine/Handicap/John_Wallis/John_Wallis.xlsx
+++ b/medicine/Handicap/John_Wallis/John_Wallis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Wallis, né le 23 novembre 1616 à Ashford, et mort le 28 octobre 1703 à Oxford, est un astronome et mathématicien anglais. Ses travaux sont précurseurs de ceux de Newton. Il est également précurseur de la phonétique, de l'éducation des sourds et de l'orthophonie.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Wallis a fait ses études à Cambridge, à l'Emmanuel College d'abord, puis au Queens' College. Étudiant d'abord la théologie, il est ordonné en 1640. Il se réoriente ensuite vers les mathématiques et montre un grand talent pour la cryptanalyse durant la guerre civile, en décryptant les messages des royalistes. Il occupe ensuite la chaire savilienne de géométrie à l'université d'Oxford, succédant à Peter Turner (en), renvoyé car royaliste.
 Il a été l'un des fondateurs de la Royal Society.
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">En mathématiques
-Ses travaux concernent principalement le calcul différentiel et intégral où il introduit les intégrales de Wallis d'allure générale : 
+          <t>En mathématiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses travaux concernent principalement le calcul différentiel et intégral où il introduit les intégrales de Wallis d'allure générale : 
           ∫
             0
               π
@@ -561,7 +580,7 @@
         x
         .
     {\displaystyle \int _{0}^{\frac {\pi }{2}}\sin ^{n}(x)\,{\rm {d}}x.}
-On lui doit également[1] le symbole de l'infini (∞) que l'on utilise de nos jours, ainsi que l'infinitésimal 
+On lui doit également le symbole de l'infini (∞) que l'on utilise de nos jours, ainsi que l'infinitésimal 
             1
             ∞
     {\displaystyle {\frac {1}{\infty }}}
@@ -586,9 +605,7 @@
               −
               1
     {\displaystyle {\frac {\pi }{2}}=\prod _{n=1}^{\infty }{\frac {4n^{2}}{4n^{2}-1}}}
-est équivalente au développement en fraction continue généralisée de 4/π trouvé par William Brouncker et semble avoir été inspirée par celui-ci[2].
-En phonétique et éducation des sourds-muets
-Wallis est l'auteur du premier traité de phonétique de la langue anglaise, en introduction à sa Grammatica Linguae Anglicanae. Il est également connu comme précurseur de l’éducation des sourds-muets. Il a exposé sa pratique dans deux lettres, éditées plusieurs fois outre-Manche. Ses travaux ont influencé l'abbé Charles-Michel de L'Épée, qui a adapté à la langue française sa méthode de démutisation des sourds-muets. Wallis a appliqué aussi la phonétique, dans une optique clinique, aux dyslalies fonctionnelles et à la correction des accents étrangers. Il a eu des échanges épistolaires postérieurs sur ces questions avec un autre précurseur en phonétique et orthophonie : Johann Conrad Amman.
+est équivalente au développement en fraction continue généralisée de 4/π trouvé par William Brouncker et semble avoir été inspirée par celui-ci.
 </t>
         </is>
       </c>
@@ -614,10 +631,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Travaux</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>En phonétique et éducation des sourds-muets</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wallis est l'auteur du premier traité de phonétique de la langue anglaise, en introduction à sa Grammatica Linguae Anglicanae. Il est également connu comme précurseur de l’éducation des sourds-muets. Il a exposé sa pratique dans deux lettres, éditées plusieurs fois outre-Manche. Ses travaux ont influencé l'abbé Charles-Michel de L'Épée, qui a adapté à la langue française sa méthode de démutisation des sourds-muets. Wallis a appliqué aussi la phonétique, dans une optique clinique, aux dyslalies fonctionnelles et à la correction des accents étrangers. Il a eu des échanges épistolaires postérieurs sur ces questions avec un autre précurseur en phonétique et orthophonie : Johann Conrad Amman.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>John_Wallis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Wallis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Arithmetica infinitorum, Oxford, 1656
 Opera, 1670-1671
